--- a/meta/4-3-1-1.xlsx
+++ b/meta/4-3-1-1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\Национальные\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Национальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="210" yWindow="450" windowWidth="15000" windowHeight="7095"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="4.3.1.1" sheetId="1" r:id="rId1"/>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>(0312) 32 46 52</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t xml:space="preserve">Совокупный коэффициент охвата образованием (совокупная доля учащихся начальных, средних и высших учебных заведений) - определяется как отношение численности учащихся и студентов первой, второй и третьей ступеней образования к численности постоянногопостоянного
@@ -183,7 +180,10 @@
     <t>: Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
   </si>
   <si>
-    <t>4.3.1.1 Образованность молодежи по полу</t>
+    <t>4.3.1.1. Доля молодежи от 15 до 24 лет, обучающихся в системе начального профессионального образования, среднего профессионального и высшего профессионального образования к численности населения соответствующего возраста</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
   </si>
 </sst>
 </file>
@@ -333,7 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -371,6 +371,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -591,7 +594,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -630,7 +633,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -675,8 +678,8 @@
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
+      <c r="B10" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -690,7 +693,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="408.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -698,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="135" customHeight="1" x14ac:dyDescent="0.2">
@@ -706,7 +709,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -720,7 +723,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -728,7 +731,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.2">
@@ -742,7 +745,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -756,7 +759,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -770,7 +773,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -778,7 +781,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -786,7 +789,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -794,7 +797,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1774,8 +1777,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B26" r:id="rId1" display="https://sustainabledevelopment-kyrgyzstan.github.io/"/>
+    <hyperlink ref="B10" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>